--- a/Hardware/Custom_DUE/PrototypeBOM.xlsx
+++ b/Hardware/Custom_DUE/PrototypeBOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
   <si>
     <t>Quantity</t>
   </si>
@@ -477,9 +477,6 @@
     <t>32k Crystal</t>
   </si>
   <si>
-    <t>Need to find</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/product-detail/en/LTST-C170YKT/160-1175-1-ND/269247</t>
   </si>
   <si>
@@ -535,6 +532,21 @@
   </si>
   <si>
     <t>MF-MSMF050-2CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/EEE-FPV100UAR/PCE4549CT-ND/1701048</t>
+  </si>
+  <si>
+    <t>PCE4549CT-ND</t>
+  </si>
+  <si>
+    <t>10uF alum cap</t>
+  </si>
+  <si>
+    <t>Need to Find</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1369,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1819,13 +1831,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1838,7 +1850,7 @@
         <v>0.72</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -1939,13 +1951,13 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1958,18 +1970,18 @@
         <v>1.69</v>
       </c>
       <c r="H30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1982,7 +1994,7 @@
         <v>0.79</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -1993,7 +2005,7 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2006,18 +2018,18 @@
         <v>2.34</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
         <v>163</v>
-      </c>
-      <c r="C33" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2030,18 +2042,18 @@
         <v>0.38</v>
       </c>
       <c r="H33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34">
         <v>6</v>
@@ -2054,25 +2066,40 @@
         <v>3.4799999999999995</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>152</v>
+      <c r="B35" t="s">
+        <v>173</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
+      <c r="D35" t="s">
+        <v>172</v>
+      </c>
       <c r="E35">
         <v>2</v>
       </c>
+      <c r="F35" s="1">
+        <v>0.68</v>
+      </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -2177,7 +2204,7 @@
     <row r="41" spans="1:8">
       <c r="G41" s="1">
         <f>SUM(G2:G40)</f>
-        <v>44.68</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="72" spans="6:8">

--- a/Hardware/Custom_DUE/PrototypeBOM.xlsx
+++ b/Hardware/Custom_DUE/PrototypeBOM.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ver.2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="234">
   <si>
     <t>Quantity</t>
   </si>
@@ -547,6 +548,180 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Part Ref</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>C23,24-NM</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>C(1:3),11,29,33</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>C43,44</t>
+  </si>
+  <si>
+    <t>C(21:25),39,40</t>
+  </si>
+  <si>
+    <t>C(4:10),(12:19),28,30,32,34,36,37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Inductors</t>
+  </si>
+  <si>
+    <t>Z3,4</t>
+  </si>
+  <si>
+    <t>L1,2,3,5</t>
+  </si>
+  <si>
+    <t>JR1,R8</t>
+  </si>
+  <si>
+    <t>R8-NM</t>
+  </si>
+  <si>
+    <t>R13,18,99</t>
+  </si>
+  <si>
+    <t>R22,24,26,27</t>
+  </si>
+  <si>
+    <t>R25,28</t>
+  </si>
+  <si>
+    <t>R14,15,17,21,23</t>
+  </si>
+  <si>
+    <t>R19,20</t>
+  </si>
+  <si>
+    <t>R5,6</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R9-NM</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Check DIM</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/67996-420HLF/609-3221-ND/1878553</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2,4</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PPPC052LFBN-RC/S7108-ND/810245</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC4</t>
+  </si>
+  <si>
+    <t>IC10</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>RX1,TX1</t>
+  </si>
+  <si>
+    <t>Display Connector</t>
+  </si>
+  <si>
+    <t>IC#</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>DIODES</t>
+  </si>
+  <si>
+    <t>U#</t>
+  </si>
+  <si>
+    <t>Clocks</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/ECS-160-20-33-TR/XC1137TR-ND/813224</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/classic/Ordering/AddPart.aspx?WT.z_cid=Shared_Cart</t>
   </si>
 </sst>
 </file>
@@ -556,7 +731,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,16 +755,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -597,8 +793,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,12 +1028,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -834,6 +1169,23 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -910,6 +1262,16 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,10 +1601,1971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="6">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="7">
+        <f>I2*H2</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" ref="J3:J62" si="0">I3*H3</f>
+        <v>0.12</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="11">
+        <v>21</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:J6" si="1">I5*H5</f>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" ref="J9:J19" si="2">I9*H9</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="11">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" ref="J20" si="3">I20*H20</f>
+        <v>0.38</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="11">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" ref="J23:J24" si="4">I23*H23</f>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="B25" s="2"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>0.97</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="16">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" ref="J34" si="5">I34*H34</f>
+        <v>0.44</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="18"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="B36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="8"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12">
+        <v>12.6</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" ref="J38" si="6">I38*H38</f>
+        <v>12.6</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="12">
+        <v>2.89</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="0"/>
+        <v>2.89</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="11">
+        <v>2</v>
+      </c>
+      <c r="I40" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="16">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17">
+        <v>3.04</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="B42" s="2"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="8"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="11">
+        <v>1</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" ref="J44:J45" si="7">I44*H44</f>
+        <v>0.15</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H45" s="16">
+        <v>2</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="7"/>
+        <v>0.72</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="18"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="B48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+      <c r="K48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="K49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="2"/>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="J50" s="1">
+        <f>I50*H50</f>
+        <v>2.34</v>
+      </c>
+      <c r="K50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="2"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="2"/>
+      <c r="D53" t="s">
+        <v>233</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="2:11" ht="20">
+      <c r="B54" s="2"/>
+      <c r="H54" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25">
+        <f>SUM(J2:J50)</f>
+        <v>45.739999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="2"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="2"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="2"/>
+      <c r="E60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="2"/>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="2"/>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="2"/>
+      <c r="J63" s="1">
+        <f>SUM(J2:J62)</f>
+        <v>91.949999999999989</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="67" spans="7:9">
+      <c r="G67" t="s">
+        <v>176</v>
+      </c>
+      <c r="I67" s="1">
+        <f>SUM(I2:I62)</f>
+        <v>37.120000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11">
+      <c r="I94" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11">
+      <c r="I95" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11">
+      <c r="I96" t="s">
+        <v>98</v>
+      </c>
+      <c r="K96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97" t="s">
+        <v>98</v>
+      </c>
+      <c r="K97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98" t="s">
+        <v>100</v>
+      </c>
+      <c r="K98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99" t="s">
+        <v>104</v>
+      </c>
+      <c r="K99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11">
+      <c r="I100" t="s">
+        <v>105</v>
+      </c>
+      <c r="K100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11">
+      <c r="I101" t="s">
+        <v>106</v>
+      </c>
+      <c r="K101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11">
+      <c r="I102" t="s">
+        <v>101</v>
+      </c>
+      <c r="K102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11">
+      <c r="I103" t="s">
+        <v>101</v>
+      </c>
+      <c r="K103" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11">
+      <c r="I104" t="s">
+        <v>72</v>
+      </c>
+      <c r="K104" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11">
+      <c r="I105" t="s">
+        <v>101</v>
+      </c>
+      <c r="K105" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11">
+      <c r="I106" t="s">
+        <v>106</v>
+      </c>
+      <c r="K106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11">
+      <c r="I107" t="s">
+        <v>97</v>
+      </c>
+      <c r="K107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11">
+      <c r="I108" t="s">
+        <v>97</v>
+      </c>
+      <c r="K108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11">
+      <c r="I109" t="s">
+        <v>101</v>
+      </c>
+      <c r="K109" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11">
+      <c r="I110">
+        <v>50</v>
+      </c>
+      <c r="K110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11">
+      <c r="I111" t="s">
+        <v>101</v>
+      </c>
+      <c r="K111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11">
+      <c r="I112">
+        <v>50</v>
+      </c>
+      <c r="K112" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11">
+      <c r="I113">
+        <v>120</v>
+      </c>
+      <c r="K113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11">
+      <c r="I114">
+        <v>50</v>
+      </c>
+      <c r="K114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11">
+      <c r="I115">
+        <v>50</v>
+      </c>
+      <c r="K115" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11">
+      <c r="I116">
+        <v>120</v>
+      </c>
+      <c r="K116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11">
+      <c r="I117" t="s">
+        <v>106</v>
+      </c>
+      <c r="K117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2207,6 +4530,15 @@
         <v>46.04</v>
       </c>
     </row>
+    <row r="45" spans="1:8">
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="1">
+        <f>SUM(F2:F40)</f>
+        <v>36.95000000000001</v>
+      </c>
+    </row>
     <row r="72" spans="6:8">
       <c r="F72" t="s">
         <v>70</v>

--- a/Hardware/Custom_DUE/PrototypeBOM.xlsx
+++ b/Hardware/Custom_DUE/PrototypeBOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ver.2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="239">
   <si>
     <t>Quantity</t>
   </si>
@@ -722,6 +722,21 @@
   </si>
   <si>
     <t>http://www.digikey.com/classic/Ordering/AddPart.aspx?WT.z_cid=Shared_Cart</t>
+  </si>
+  <si>
+    <t>LMV358IDGKR</t>
+  </si>
+  <si>
+    <t>296-13455-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=169632228&amp;uq=635635371363400194&amp;CSRT=16009087163214764923</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=169439461&amp;uq=635635371363400194&amp;CSRT=16009087163214764923</t>
+  </si>
+  <si>
+    <t>535-9541-1-ND</t>
   </si>
 </sst>
 </file>
@@ -771,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,7 +1077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1078,9 +1099,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1091,6 +1109,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="180">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1603,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1613,7 +1643,7 @@
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1652,7 +1682,7 @@
       <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="26" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1692,7 +1722,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C3" s="11"/>
@@ -1730,7 +1760,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="11"/>
@@ -1768,7 +1798,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="11"/>
@@ -1806,41 +1836,41 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>2</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>0.68</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <f t="shared" si="1"/>
         <v>1.36</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="18"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="2"/>
@@ -1871,7 +1901,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1912,7 +1942,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="11"/>
@@ -1951,7 +1981,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C11" s="11"/>
@@ -1990,7 +2020,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C12" s="11"/>
@@ -2029,7 +2059,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C13" s="11"/>
@@ -2068,7 +2098,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="11"/>
@@ -2107,7 +2137,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="11"/>
@@ -2146,7 +2176,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C16" s="11"/>
@@ -2185,7 +2215,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="9"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="11"/>
@@ -2224,7 +2254,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="9"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="11"/>
@@ -2263,7 +2293,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -2303,43 +2333,43 @@
       <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>2</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>0.19</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <f t="shared" ref="J20" si="3">I20*H20</f>
         <v>0.38</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="18"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="3"/>
@@ -2370,7 +2400,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="9"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C23" s="11"/>
@@ -2408,41 +2438,41 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17">
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
         <v>0.22</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="16">
         <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="18"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:19">
       <c r="B25" s="2"/>
@@ -2474,7 +2504,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C27" s="11"/>
@@ -2485,23 +2515,23 @@
         <v>45</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>148</v>
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
       </c>
       <c r="H27" s="11">
         <v>1</v>
       </c>
       <c r="I27" s="12">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.87</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>44</v>
+        <v>0.82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -2514,7 +2544,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C28" s="11"/>
@@ -2554,7 +2584,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="11"/>
@@ -2594,7 +2624,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C30" s="11"/>
@@ -2634,43 +2664,43 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="16">
-        <v>1</v>
-      </c>
-      <c r="I31" s="17">
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16">
         <v>0.7</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="16">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="18"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="17"/>
     </row>
     <row r="32" spans="1:19">
       <c r="B32" s="2"/>
@@ -2700,7 +2730,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C34" s="11"/>
@@ -2738,49 +2768,49 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H35" s="16">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17">
+      <c r="H35" s="15">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16">
         <v>0.87</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="16">
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="18"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:18">
       <c r="B36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
@@ -2795,7 +2825,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -2806,7 +2836,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="11"/>
@@ -2845,7 +2875,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C39" s="11"/>
@@ -2923,42 +2953,42 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="16">
-        <v>1</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="H41" s="15">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16">
         <v>3.04</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="16">
         <f t="shared" si="0"/>
         <v>3.04</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="18"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="17"/>
     </row>
     <row r="42" spans="1:18">
       <c r="B42" s="2"/>
@@ -2989,7 +3019,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="9"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="11"/>
@@ -3028,42 +3058,42 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="14"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="15">
         <v>2</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="16">
         <v>0.36</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="16">
         <f t="shared" si="7"/>
         <v>0.72</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="18"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="17"/>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="11"/>
@@ -3076,7 +3106,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="23"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -3094,7 +3124,7 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D48" t="s">
@@ -3124,7 +3154,7 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D49" t="s">
@@ -3154,7 +3184,9 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="2"/>
+      <c r="B50" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="D50" t="s">
         <v>231</v>
       </c>
@@ -3165,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -3178,7 +3210,7 @@
         <v>2.34</v>
       </c>
       <c r="K50" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="2:11">
@@ -3201,13 +3233,13 @@
     </row>
     <row r="54" spans="2:11" ht="20">
       <c r="B54" s="2"/>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25">
+      <c r="I54" s="23"/>
+      <c r="J54" s="24">
         <f>SUM(J2:J50)</f>
-        <v>45.739999999999995</v>
+        <v>45.69</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3342,7 +3374,7 @@
       <c r="B63" s="2"/>
       <c r="J63" s="1">
         <f>SUM(J2:J62)</f>
-        <v>91.949999999999989</v>
+        <v>91.85</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -3354,7 +3386,7 @@
       </c>
       <c r="I67" s="1">
         <f>SUM(I2:I62)</f>
-        <v>37.120000000000005</v>
+        <v>37.069999999999993</v>
       </c>
     </row>
     <row r="94" spans="9:11">
@@ -3551,7 +3583,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
